--- a/Planning previsionnel.xlsx
+++ b/Planning previsionnel.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7908"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="15360" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="projet" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <r>
       <rPr>
@@ -241,14 +241,11 @@
   <si>
     <t>Groupe</t>
   </si>
-  <si>
-    <t>Marc</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -764,15 +761,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>198120</xdr:colOff>
+          <xdr:colOff>200025</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>259080</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -780,6 +777,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1041,24 +1041,24 @@
   </sheetPr>
   <dimension ref="A2:BQ34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="58.77734375" style="2" customWidth="1"/>
-    <col min="3" max="5" width="7.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="4.21875" style="1" customWidth="1"/>
-    <col min="9" max="28" width="16.5546875" style="1" customWidth="1"/>
-    <col min="29" max="69" width="16.5546875" customWidth="1"/>
-    <col min="70" max="70" width="4.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="58.75" style="2" customWidth="1"/>
+    <col min="3" max="5" width="7.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="4.25" style="1" customWidth="1"/>
+    <col min="9" max="28" width="16.5" style="1" customWidth="1"/>
+    <col min="29" max="69" width="16.5" customWidth="1"/>
+    <col min="70" max="70" width="4.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:69" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
         <v>16</v>
       </c>
@@ -1068,7 +1068,7 @@
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
     </row>
-    <row r="3" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
@@ -1111,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -1124,12 +1124,12 @@
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
     </row>
-    <row r="6" spans="1:69" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="19" t="s">
         <v>9</v>
@@ -1153,7 +1153,7 @@
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
     </row>
-    <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="BQ8" s="1"/>
     </row>
-    <row r="9" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>31</v>
       </c>
@@ -1381,13 +1381,17 @@
       <c r="D9" s="15">
         <v>1</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
       <c r="G9" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>30</v>
       </c>
@@ -1400,15 +1404,19 @@
       <c r="D10" s="15">
         <v>1</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1</v>
+      </c>
       <c r="G10" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>27</v>
@@ -1419,15 +1427,19 @@
       <c r="D11" s="15">
         <v>2</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15">
+        <v>1</v>
+      </c>
       <c r="G11" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>14</v>
@@ -1438,13 +1450,15 @@
       <c r="D12" s="15">
         <v>1</v>
       </c>
-      <c r="E12" s="15"/>
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
       <c r="F12" s="15"/>
       <c r="G12" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>32</v>
       </c>
@@ -1463,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
       <c r="B14" s="21" t="s">
         <v>23</v>
@@ -1480,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
       <c r="B15" s="21" t="s">
         <v>24</v>
@@ -1497,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="B16" s="21" t="s">
         <v>25</v>
@@ -1514,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
       <c r="B17" s="21" t="s">
         <v>26</v>
@@ -1531,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>32</v>
       </c>
@@ -1550,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26"/>
       <c r="B19" s="21" t="s">
         <v>19</v>
@@ -1567,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
       <c r="B20" s="21" t="s">
         <v>20</v>
@@ -1584,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
       <c r="B21" s="21" t="s">
         <v>21</v>
@@ -1601,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="21" t="s">
         <v>29</v>
       </c>
@@ -1617,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="21"/>
       <c r="C23" s="17" t="s">
         <v>17</v>
@@ -1631,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="21" t="s">
         <v>17</v>
       </c>
@@ -1647,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
         <v>17</v>
       </c>
@@ -1663,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="21" t="s">
         <v>17</v>
       </c>
@@ -1679,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
         <v>17</v>
       </c>
@@ -1695,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="21" t="s">
         <v>17</v>
       </c>
@@ -1711,8 +1725,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -1741,7 +1755,7 @@
       <c r="AA30"/>
       <c r="AB30"/>
     </row>
-    <row r="31" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -1770,7 +1784,7 @@
       <c r="AA31"/>
       <c r="AB31"/>
     </row>
-    <row r="32" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -1799,7 +1813,7 @@
       <c r="AA32"/>
       <c r="AB32"/>
     </row>
-    <row r="33" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -1828,7 +1842,7 @@
       <c r="AA33"/>
       <c r="AB33"/>
     </row>
-    <row r="34" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
@@ -1913,15 +1927,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>198120</xdr:colOff>
+                    <xdr:colOff>200025</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>259080</xdr:rowOff>
+                    <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/Planning previsionnel.xlsx
+++ b/Planning previsionnel.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="15360" windowHeight="7905"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="15360" windowHeight="7908"/>
   </bookViews>
   <sheets>
     <sheet name="projet" sheetId="1" r:id="rId1"/>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -761,15 +761,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>68580</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:rowOff>259080</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -779,7 +779,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1041,24 +1041,24 @@
   </sheetPr>
   <dimension ref="A2:BQ34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
-    <col min="2" max="2" width="58.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="7.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="4.25" style="1" customWidth="1"/>
-    <col min="9" max="28" width="16.5" style="1" customWidth="1"/>
-    <col min="29" max="69" width="16.5" customWidth="1"/>
-    <col min="70" max="70" width="4.125" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="7.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="4.21875" style="1" customWidth="1"/>
+    <col min="9" max="28" width="16.44140625" style="1" customWidth="1"/>
+    <col min="29" max="69" width="16.44140625" customWidth="1"/>
+    <col min="70" max="70" width="4.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
         <v>16</v>
       </c>
@@ -1068,7 +1068,7 @@
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
     </row>
-    <row r="3" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
@@ -1111,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -1124,12 +1124,12 @@
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.35">
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
     </row>
-    <row r="6" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
       <c r="C6" s="19" t="s">
         <v>9</v>
@@ -1153,7 +1153,7 @@
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
     </row>
-    <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="20"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="BQ8" s="1"/>
     </row>
-    <row r="9" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
         <v>31</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
         <v>30</v>
       </c>
@@ -1411,10 +1411,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="16">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
         <v>31</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
         <v>32</v>
       </c>
@@ -1453,12 +1453,14 @@
       <c r="E12" s="15">
         <v>1</v>
       </c>
-      <c r="F12" s="15"/>
+      <c r="F12" s="15">
+        <v>1</v>
+      </c>
       <c r="G12" s="16">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>32</v>
       </c>
@@ -1477,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="26"/>
       <c r="B14" s="21" t="s">
         <v>23</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="26"/>
       <c r="B15" s="21" t="s">
         <v>24</v>
@@ -1511,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="26"/>
       <c r="B16" s="21" t="s">
         <v>25</v>
@@ -1528,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="26"/>
       <c r="B17" s="21" t="s">
         <v>26</v>
@@ -1545,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>32</v>
       </c>
@@ -1564,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="26"/>
       <c r="B19" s="21" t="s">
         <v>19</v>
@@ -1581,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="26"/>
       <c r="B20" s="21" t="s">
         <v>20</v>
@@ -1598,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="26"/>
       <c r="B21" s="21" t="s">
         <v>21</v>
@@ -1615,7 +1617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="21" t="s">
         <v>29</v>
       </c>
@@ -1631,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="21"/>
       <c r="C23" s="17" t="s">
         <v>17</v>
@@ -1645,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="21" t="s">
         <v>17</v>
       </c>
@@ -1661,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="21" t="s">
         <v>17</v>
       </c>
@@ -1677,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="21" t="s">
         <v>17</v>
       </c>
@@ -1693,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="21" t="s">
         <v>17</v>
       </c>
@@ -1709,7 +1711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="21" t="s">
         <v>17</v>
       </c>
@@ -1725,8 +1727,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -1755,7 +1757,7 @@
       <c r="AA30"/>
       <c r="AB30"/>
     </row>
-    <row r="31" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -1784,7 +1786,7 @@
       <c r="AA31"/>
       <c r="AB31"/>
     </row>
-    <row r="32" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -1813,7 +1815,7 @@
       <c r="AA32"/>
       <c r="AB32"/>
     </row>
-    <row r="33" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -1842,7 +1844,7 @@
       <c r="AA33"/>
       <c r="AB33"/>
     </row>
-    <row r="34" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
@@ -1927,15 +1929,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>68580</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>257175</xdr:rowOff>
+                    <xdr:rowOff>259080</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/Planning previsionnel.xlsx
+++ b/Planning previsionnel.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="15360" windowHeight="7908"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="projet" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <r>
       <rPr>
@@ -185,9 +185,6 @@
     <t>Dictionnaire de données</t>
   </si>
   <si>
-    <t>Dépandances fonctionnelles</t>
-  </si>
-  <si>
     <t>Diagramme des flux</t>
   </si>
   <si>
@@ -240,12 +237,18 @@
   </si>
   <si>
     <t>Groupe</t>
+  </si>
+  <si>
+    <t>Dépendances fonctionnelles</t>
+  </si>
+  <si>
+    <t>• Sauvegarde base de données + restitution</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -761,15 +764,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>198120</xdr:colOff>
+          <xdr:colOff>200025</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>259080</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -779,7 +782,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1039,28 +1042,28 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:BQ34"/>
+  <dimension ref="A2:BQ33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="58.77734375" style="2" customWidth="1"/>
-    <col min="3" max="5" width="7.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="4.21875" style="1" customWidth="1"/>
-    <col min="9" max="28" width="16.44140625" style="1" customWidth="1"/>
-    <col min="29" max="69" width="16.44140625" customWidth="1"/>
-    <col min="70" max="70" width="4.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="58.75" style="2" customWidth="1"/>
+    <col min="3" max="5" width="7.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="4.25" style="1" customWidth="1"/>
+    <col min="9" max="28" width="16.5" style="1" customWidth="1"/>
+    <col min="29" max="69" width="16.5" customWidth="1"/>
+    <col min="70" max="70" width="4.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:69" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -1068,7 +1071,7 @@
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
     </row>
-    <row r="3" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
@@ -1076,7 +1079,7 @@
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="I3" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -1111,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -1124,12 +1127,12 @@
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
     </row>
-    <row r="6" spans="1:69" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="19" t="s">
         <v>9</v>
@@ -1153,7 +1156,7 @@
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
     </row>
-    <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1178,7 +1181,7 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1368,12 +1371,12 @@
       </c>
       <c r="BQ8" s="1"/>
     </row>
-    <row r="9" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="17">
         <v>1</v>
@@ -1391,9 +1394,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>13</v>
@@ -1414,12 +1417,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="17">
         <v>1</v>
@@ -1437,12 +1440,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>14</v>
       </c>
       <c r="C12" s="17">
         <v>2</v>
@@ -1460,12 +1463,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="17">
         <v>2</v>
@@ -1479,10 +1482,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
       <c r="B14" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="17">
         <v>2</v>
@@ -1496,10 +1499,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
       <c r="B15" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="17">
         <v>3</v>
@@ -1513,10 +1516,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="B16" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="17">
         <v>3</v>
@@ -1530,10 +1533,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
       <c r="B17" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="17">
         <v>3</v>
@@ -1547,12 +1550,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="17">
         <v>4</v>
@@ -1566,10 +1569,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26"/>
       <c r="B19" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="17">
         <v>4</v>
@@ -1583,10 +1586,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
       <c r="B20" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="17">
         <v>5</v>
@@ -1600,10 +1603,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
       <c r="B21" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="17">
         <v>6</v>
@@ -1617,15 +1620,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="15">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="C22" s="17">
+        <v>7</v>
       </c>
       <c r="D22" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
@@ -1633,13 +1636,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="21"/>
-      <c r="C23" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>17</v>
+    <row r="23" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="15">
+        <v>8</v>
+      </c>
+      <c r="D23" s="15">
+        <v>1</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
@@ -1647,15 +1652,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
@@ -1663,15 +1668,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -1679,15 +1684,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
@@ -1695,15 +1700,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -1711,24 +1716,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+    </row>
+    <row r="30" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -1757,7 +1775,7 @@
       <c r="AA30"/>
       <c r="AB30"/>
     </row>
-    <row r="31" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -1786,7 +1804,7 @@
       <c r="AA31"/>
       <c r="AB31"/>
     </row>
-    <row r="32" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -1815,7 +1833,7 @@
       <c r="AA32"/>
       <c r="AB32"/>
     </row>
-    <row r="33" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -1844,42 +1862,13 @@
       <c r="AA33"/>
       <c r="AB33"/>
     </row>
-    <row r="34" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
-      <c r="W34"/>
-      <c r="X34"/>
-      <c r="Y34"/>
-      <c r="Z34"/>
-      <c r="AA34"/>
-      <c r="AB34"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:G4"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A13:A17"/>
   </mergeCells>
-  <conditionalFormatting sqref="I9:BP28">
+  <conditionalFormatting sqref="I9:BP27">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>PourcentageAchevé</formula>
     </cfRule>
@@ -1905,7 +1894,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:BP29">
+  <conditionalFormatting sqref="B28:BP28">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>
@@ -1929,15 +1918,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>198120</xdr:colOff>
+                    <xdr:colOff>200025</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>259080</xdr:rowOff>
+                    <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/Planning previsionnel.xlsx
+++ b/Planning previsionnel.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <r>
       <rPr>
@@ -191,9 +191,6 @@
     <t>Planning Prévisionnel</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Requêtes SQL :</t>
   </si>
   <si>
@@ -243,6 +240,18 @@
   </si>
   <si>
     <t>• Sauvegarde base de données + restitution</t>
+  </si>
+  <si>
+    <t>Envoi planning provitionnel</t>
+  </si>
+  <si>
+    <t>Envoi Livrable "Modélisation"</t>
+  </si>
+  <si>
+    <t>Envoi Livrable "Projet"</t>
+  </si>
+  <si>
+    <t>Présentation projet</t>
   </si>
 </sst>
 </file>
@@ -754,7 +763,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="période_sélectionnée" max="60" min="1" page="10"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="période_sélectionnée" max="60" min="1" page="10" val="2"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1044,8 +1053,8 @@
   </sheetPr>
   <dimension ref="A2:BQ33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D18" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1079,14 +1088,14 @@
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="I3" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O3" s="8"/>
       <c r="Q3" s="10"/>
@@ -1373,7 +1382,7 @@
     </row>
     <row r="9" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>14</v>
@@ -1396,7 +1405,7 @@
     </row>
     <row r="10" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>13</v>
@@ -1419,10 +1428,10 @@
     </row>
     <row r="11" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="17">
         <v>1</v>
@@ -1442,10 +1451,10 @@
     </row>
     <row r="12" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>32</v>
       </c>
       <c r="C12" s="17">
         <v>2</v>
@@ -1465,10 +1474,10 @@
     </row>
     <row r="13" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="17">
         <v>2</v>
@@ -1485,7 +1494,7 @@
     <row r="14" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
       <c r="B14" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="17">
         <v>2</v>
@@ -1502,7 +1511,7 @@
     <row r="15" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
       <c r="B15" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="17">
         <v>3</v>
@@ -1519,7 +1528,7 @@
     <row r="16" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="B16" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="17">
         <v>3</v>
@@ -1536,7 +1545,7 @@
     <row r="17" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
       <c r="B17" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="17">
         <v>3</v>
@@ -1552,10 +1561,10 @@
     </row>
     <row r="18" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="17">
         <v>4</v>
@@ -1572,7 +1581,7 @@
     <row r="19" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26"/>
       <c r="B19" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="17">
         <v>4</v>
@@ -1589,7 +1598,7 @@
     <row r="20" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
       <c r="B20" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="17">
         <v>5</v>
@@ -1606,7 +1615,7 @@
     <row r="21" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
       <c r="B21" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="17">
         <v>6</v>
@@ -1622,7 +1631,7 @@
     </row>
     <row r="22" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="17">
         <v>7</v>
@@ -1638,7 +1647,7 @@
     </row>
     <row r="23" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="15">
         <v>8</v>
@@ -1654,13 +1663,13 @@
     </row>
     <row r="24" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>16</v>
+        <v>33</v>
+      </c>
+      <c r="C24" s="17">
+        <v>2</v>
+      </c>
+      <c r="D24" s="15">
+        <v>1</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
@@ -1670,13 +1679,13 @@
     </row>
     <row r="25" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+      <c r="C25" s="17">
+        <v>7</v>
+      </c>
+      <c r="D25" s="15">
+        <v>1</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -1686,13 +1695,13 @@
     </row>
     <row r="26" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>16</v>
+        <v>35</v>
+      </c>
+      <c r="C26" s="17">
+        <v>8</v>
+      </c>
+      <c r="D26" s="15">
+        <v>1</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
@@ -1702,13 +1711,13 @@
     </row>
     <row r="27" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>16</v>
+        <v>36</v>
+      </c>
+      <c r="C27" s="17">
+        <v>9</v>
+      </c>
+      <c r="D27" s="15">
+        <v>1</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>

--- a/Planning previsionnel.xlsx
+++ b/Planning previsionnel.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
   </bookViews>
   <sheets>
     <sheet name="projet" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <r>
       <rPr>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,7 +436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -479,6 +479,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -504,7 +513,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -574,9 +583,6 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="7" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -584,7 +590,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -773,15 +791,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>68580</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:rowOff>259080</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -791,7 +809,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1053,40 +1071,40 @@
   </sheetPr>
   <dimension ref="A2:BQ33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D18" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
-    <col min="2" max="2" width="58.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="7.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="4.25" style="1" customWidth="1"/>
-    <col min="9" max="28" width="16.5" style="1" customWidth="1"/>
-    <col min="29" max="69" width="16.5" customWidth="1"/>
-    <col min="70" max="70" width="4.125" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="7.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="4.21875" style="1" customWidth="1"/>
+    <col min="9" max="28" width="16.44140625" style="1" customWidth="1"/>
+    <col min="29" max="69" width="16.44140625" customWidth="1"/>
+    <col min="70" max="70" width="4.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:69" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="1:69" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-    </row>
-    <row r="3" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
       <c r="I3" s="22" t="s">
         <v>26</v>
       </c>
@@ -1123,25 +1141,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+    <row r="4" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.35">
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
     </row>
-    <row r="6" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
       <c r="C6" s="19" t="s">
         <v>9</v>
@@ -1165,7 +1183,7 @@
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
     </row>
-    <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1190,7 +1208,7 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="20"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1380,8 +1398,8 @@
       </c>
       <c r="BQ8" s="1"/>
     </row>
-    <row r="9" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="26" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -1403,8 +1421,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="26" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -1426,8 +1444,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="26" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1449,8 +1467,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="26" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -1469,11 +1487,11 @@
         <v>1</v>
       </c>
       <c r="G12" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="27" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1485,14 +1503,18 @@
       <c r="D13" s="15">
         <v>2</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="E13" s="15">
+        <v>2</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1</v>
+      </c>
       <c r="G13" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="28"/>
       <c r="B14" s="21" t="s">
         <v>21</v>
       </c>
@@ -1502,14 +1524,18 @@
       <c r="D14" s="15">
         <v>1</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="15">
+        <v>2</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1</v>
+      </c>
       <c r="G14" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="28"/>
       <c r="B15" s="21" t="s">
         <v>22</v>
       </c>
@@ -1519,14 +1545,18 @@
       <c r="D15" s="15">
         <v>1</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="E15" s="15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="15">
+        <v>1</v>
+      </c>
       <c r="G15" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="28"/>
       <c r="B16" s="21" t="s">
         <v>23</v>
       </c>
@@ -1542,8 +1572,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+    <row r="17" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="28"/>
       <c r="B17" s="21" t="s">
         <v>24</v>
       </c>
@@ -1559,8 +1589,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+    <row r="18" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="27" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1578,8 +1608,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
+    <row r="19" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="28"/>
       <c r="B19" s="21" t="s">
         <v>17</v>
       </c>
@@ -1595,8 +1625,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
+    <row r="20" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="28"/>
       <c r="B20" s="21" t="s">
         <v>18</v>
       </c>
@@ -1612,8 +1642,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
+    <row r="21" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="28"/>
       <c r="B21" s="21" t="s">
         <v>19</v>
       </c>
@@ -1629,7 +1659,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="28"/>
       <c r="B22" s="21" t="s">
         <v>32</v>
       </c>
@@ -1645,7 +1676,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="28"/>
       <c r="B23" s="21" t="s">
         <v>27</v>
       </c>
@@ -1661,7 +1693,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="27" t="s">
+        <v>28</v>
+      </c>
       <c r="B24" s="21" t="s">
         <v>33</v>
       </c>
@@ -1671,13 +1706,18 @@
       <c r="D24" s="15">
         <v>1</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="E24" s="15">
+        <v>2</v>
+      </c>
+      <c r="F24" s="15">
+        <v>1</v>
+      </c>
       <c r="G24" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="28"/>
       <c r="B25" s="21" t="s">
         <v>34</v>
       </c>
@@ -1693,7 +1733,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="28"/>
       <c r="B26" s="21" t="s">
         <v>35</v>
       </c>
@@ -1709,7 +1750,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="B27" s="21" t="s">
         <v>36</v>
       </c>
@@ -1725,8 +1769,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="29"/>
+    </row>
+    <row r="29" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="25"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -1755,7 +1802,7 @@
       <c r="AA29"/>
       <c r="AB29"/>
     </row>
-    <row r="30" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -1784,7 +1831,7 @@
       <c r="AA30"/>
       <c r="AB30"/>
     </row>
-    <row r="31" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -1813,7 +1860,7 @@
       <c r="AA31"/>
       <c r="AB31"/>
     </row>
-    <row r="32" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -1842,7 +1889,7 @@
       <c r="AA32"/>
       <c r="AB32"/>
     </row>
-    <row r="33" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -1872,10 +1919,11 @@
       <c r="AB33"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:G4"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A18:A23"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:BP27">
     <cfRule type="expression" dxfId="9" priority="1">
@@ -1927,15 +1975,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>68580</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>257175</xdr:rowOff>
+                    <xdr:rowOff>259080</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/Planning previsionnel.xlsx
+++ b/Planning previsionnel.xlsx
@@ -583,26 +583,26 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="7" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -809,7 +809,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1071,8 +1071,8 @@
   </sheetPr>
   <dimension ref="A2:BQ33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -1089,22 +1089,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:69" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
       <c r="I3" s="22" t="s">
         <v>26</v>
       </c>
@@ -1142,12 +1142,12 @@
       </c>
     </row>
     <row r="4" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
@@ -1399,7 +1399,7 @@
       <c r="BQ8" s="1"/>
     </row>
     <row r="9" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -1422,7 +1422,7 @@
       </c>
     </row>
     <row r="10" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="24" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -1445,7 +1445,7 @@
       </c>
     </row>
     <row r="11" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1468,7 +1468,7 @@
       </c>
     </row>
     <row r="12" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -1481,17 +1481,17 @@
         <v>1</v>
       </c>
       <c r="E12" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="16">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="28" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1510,11 +1510,11 @@
         <v>1</v>
       </c>
       <c r="G13" s="16">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="21" t="s">
         <v>21</v>
       </c>
@@ -1535,7 +1535,7 @@
       </c>
     </row>
     <row r="15" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="28"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="21" t="s">
         <v>22</v>
       </c>
@@ -1556,7 +1556,7 @@
       </c>
     </row>
     <row r="16" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="21" t="s">
         <v>23</v>
       </c>
@@ -1566,14 +1566,18 @@
       <c r="D16" s="15">
         <v>1</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="E16" s="15">
+        <v>3</v>
+      </c>
+      <c r="F16" s="15">
+        <v>1</v>
+      </c>
       <c r="G16" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="28"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="21" t="s">
         <v>24</v>
       </c>
@@ -1590,7 +1594,7 @@
       </c>
     </row>
     <row r="18" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="28" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1609,7 +1613,7 @@
       </c>
     </row>
     <row r="19" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="28"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="21" t="s">
         <v>17</v>
       </c>
@@ -1626,7 +1630,7 @@
       </c>
     </row>
     <row r="20" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="28"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="21" t="s">
         <v>18</v>
       </c>
@@ -1643,7 +1647,7 @@
       </c>
     </row>
     <row r="21" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="28"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="21" t="s">
         <v>19</v>
       </c>
@@ -1660,7 +1664,7 @@
       </c>
     </row>
     <row r="22" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="21" t="s">
         <v>32</v>
       </c>
@@ -1677,7 +1681,7 @@
       </c>
     </row>
     <row r="23" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="28"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="21" t="s">
         <v>27</v>
       </c>
@@ -1694,7 +1698,7 @@
       </c>
     </row>
     <row r="24" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="21" t="s">
@@ -1717,7 +1721,7 @@
       </c>
     </row>
     <row r="25" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="28"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="21" t="s">
         <v>34</v>
       </c>
@@ -1734,7 +1738,7 @@
       </c>
     </row>
     <row r="26" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="28"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="21" t="s">
         <v>35</v>
       </c>
@@ -1751,7 +1755,7 @@
       </c>
     </row>
     <row r="27" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -1770,10 +1774,10 @@
       </c>
     </row>
     <row r="28" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="29"/>
+      <c r="A28" s="25"/>
     </row>
     <row r="29" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
+      <c r="A29" s="23"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>

--- a/Planning previsionnel.xlsx
+++ b/Planning previsionnel.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="projet" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <r>
       <rPr>
@@ -253,11 +253,17 @@
   <si>
     <t>Présentation projet</t>
   </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -479,15 +485,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -513,7 +510,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -584,13 +581,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -598,10 +595,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -791,15 +785,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>198120</xdr:colOff>
+          <xdr:colOff>200025</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>259080</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -809,7 +803,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1071,24 +1065,24 @@
   </sheetPr>
   <dimension ref="A2:BQ33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="58.77734375" style="2" customWidth="1"/>
-    <col min="3" max="5" width="7.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="4.21875" style="1" customWidth="1"/>
-    <col min="9" max="28" width="16.44140625" style="1" customWidth="1"/>
-    <col min="29" max="69" width="16.44140625" customWidth="1"/>
-    <col min="70" max="70" width="4.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="58.75" style="2" customWidth="1"/>
+    <col min="3" max="5" width="7.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="4.25" style="1" customWidth="1"/>
+    <col min="9" max="28" width="16.5" style="1" customWidth="1"/>
+    <col min="29" max="69" width="16.5" customWidth="1"/>
+    <col min="70" max="70" width="4.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:69" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="26" t="s">
         <v>15</v>
       </c>
@@ -1098,7 +1092,7 @@
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
     </row>
-    <row r="3" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -1141,7 +1135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -1154,12 +1148,12 @@
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
     </row>
-    <row r="6" spans="1:69" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="19" t="s">
         <v>9</v>
@@ -1183,7 +1177,7 @@
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
     </row>
-    <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1208,7 +1202,7 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1398,8 +1392,8 @@
       </c>
       <c r="BQ8" s="1"/>
     </row>
-    <row r="9" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="24" t="s">
+    <row r="9" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -1421,8 +1415,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -1444,8 +1438,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1464,11 +1458,11 @@
         <v>1</v>
       </c>
       <c r="G11" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="24" t="s">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -1481,16 +1475,16 @@
         <v>1</v>
       </c>
       <c r="E12" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>30</v>
       </c>
@@ -1503,18 +1497,14 @@
       <c r="D13" s="15">
         <v>2</v>
       </c>
-      <c r="E13" s="15">
-        <v>2</v>
-      </c>
-      <c r="F13" s="15">
-        <v>1</v>
-      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="16">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="29"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="28"/>
       <c r="B14" s="21" t="s">
         <v>21</v>
       </c>
@@ -1524,18 +1514,14 @@
       <c r="D14" s="15">
         <v>1</v>
       </c>
-      <c r="E14" s="15">
-        <v>2</v>
-      </c>
-      <c r="F14" s="15">
-        <v>1</v>
-      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="29"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="28"/>
       <c r="B15" s="21" t="s">
         <v>22</v>
       </c>
@@ -1545,18 +1531,14 @@
       <c r="D15" s="15">
         <v>1</v>
       </c>
-      <c r="E15" s="15">
-        <v>2</v>
-      </c>
-      <c r="F15" s="15">
-        <v>1</v>
-      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28"/>
       <c r="B16" s="21" t="s">
         <v>23</v>
       </c>
@@ -1566,18 +1548,14 @@
       <c r="D16" s="15">
         <v>1</v>
       </c>
-      <c r="E16" s="15">
-        <v>3</v>
-      </c>
-      <c r="F16" s="15">
-        <v>1</v>
-      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28"/>
       <c r="B17" s="21" t="s">
         <v>24</v>
       </c>
@@ -1593,10 +1571,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="28" t="s">
-        <v>30</v>
-      </c>
+    <row r="18" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1612,8 +1588,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="29"/>
+    <row r="19" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
+        <v>28</v>
+      </c>
       <c r="B19" s="21" t="s">
         <v>17</v>
       </c>
@@ -1629,8 +1607,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="29"/>
+    <row r="20" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
+        <v>37</v>
+      </c>
       <c r="B20" s="21" t="s">
         <v>18</v>
       </c>
@@ -1646,8 +1626,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="29"/>
+    <row r="21" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>38</v>
+      </c>
       <c r="B21" s="21" t="s">
         <v>19</v>
       </c>
@@ -1663,8 +1645,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="29"/>
+    <row r="22" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="B22" s="21" t="s">
         <v>32</v>
       </c>
@@ -1680,8 +1664,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="29"/>
+    <row r="23" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>30</v>
+      </c>
       <c r="B23" s="21" t="s">
         <v>27</v>
       </c>
@@ -1697,8 +1683,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="28" t="s">
+    <row r="24" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="21" t="s">
@@ -1710,18 +1696,16 @@
       <c r="D24" s="15">
         <v>1</v>
       </c>
-      <c r="E24" s="15">
-        <v>2</v>
-      </c>
-      <c r="F24" s="15">
-        <v>1</v>
-      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="B25" s="21" t="s">
         <v>34</v>
       </c>
@@ -1737,8 +1721,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="29"/>
+    <row r="26" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="B26" s="21" t="s">
         <v>35</v>
       </c>
@@ -1754,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
         <v>30</v>
       </c>
@@ -1773,11 +1759,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="25"/>
-    </row>
-    <row r="29" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
+    <row r="28" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -1806,7 +1789,7 @@
       <c r="AA29"/>
       <c r="AB29"/>
     </row>
-    <row r="30" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -1835,7 +1818,7 @@
       <c r="AA30"/>
       <c r="AB30"/>
     </row>
-    <row r="31" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -1864,7 +1847,7 @@
       <c r="AA31"/>
       <c r="AB31"/>
     </row>
-    <row r="32" spans="1:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -1893,7 +1876,7 @@
       <c r="AA32"/>
       <c r="AB32"/>
     </row>
-    <row r="33" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -1923,11 +1906,9 @@
       <c r="AB33"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="B2:G4"/>
     <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A18:A23"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:BP27">
     <cfRule type="expression" dxfId="9" priority="1">
@@ -1979,15 +1960,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>198120</xdr:colOff>
+                    <xdr:colOff>200025</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>259080</xdr:rowOff>
+                    <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/Planning previsionnel.xlsx
+++ b/Planning previsionnel.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="projet" sheetId="1" r:id="rId1"/>
@@ -775,7 +775,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="période_sélectionnée" max="60" min="1" page="10" val="2"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="période_sélectionnée" max="60" min="1" page="10" val="3"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1065,8 +1065,8 @@
   </sheetPr>
   <dimension ref="A2:BQ33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1107,7 +1107,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O3" s="8"/>
       <c r="Q3" s="10"/>
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="16">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1481,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1497,10 +1497,14 @@
       <c r="D13" s="15">
         <v>2</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="E13" s="15">
+        <v>2</v>
+      </c>
+      <c r="F13" s="15">
+        <v>2</v>
+      </c>
       <c r="G13" s="16">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1514,10 +1518,14 @@
       <c r="D14" s="15">
         <v>1</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="15">
+        <v>2</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1</v>
+      </c>
       <c r="G14" s="16">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1531,10 +1539,14 @@
       <c r="D15" s="15">
         <v>1</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="E15" s="15">
+        <v>3</v>
+      </c>
+      <c r="F15" s="15">
+        <v>1</v>
+      </c>
       <c r="G15" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1548,10 +1560,14 @@
       <c r="D16" s="15">
         <v>1</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="E16" s="15">
+        <v>3</v>
+      </c>
+      <c r="F16" s="15">
+        <v>1</v>
+      </c>
       <c r="G16" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1565,10 +1581,14 @@
       <c r="D17" s="15">
         <v>1</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="E17" s="15">
+        <v>3</v>
+      </c>
+      <c r="F17" s="15">
+        <v>1</v>
+      </c>
       <c r="G17" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1582,10 +1602,14 @@
       <c r="D18" s="15">
         <v>4</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="E18" s="15">
+        <v>4</v>
+      </c>
+      <c r="F18" s="15">
+        <v>5</v>
+      </c>
       <c r="G18" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1601,10 +1625,14 @@
       <c r="D19" s="15">
         <v>1</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="E19" s="15">
+        <v>4</v>
+      </c>
+      <c r="F19" s="15">
+        <v>4</v>
+      </c>
       <c r="G19" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1620,10 +1648,14 @@
       <c r="D20" s="15">
         <v>2</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="E20" s="15">
+        <v>4</v>
+      </c>
+      <c r="F20" s="15">
+        <v>4</v>
+      </c>
       <c r="G20" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1639,10 +1671,14 @@
       <c r="D21" s="15">
         <v>2</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="E21" s="15">
+        <v>4</v>
+      </c>
+      <c r="F21" s="15">
+        <v>3</v>
+      </c>
       <c r="G21" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1658,10 +1694,14 @@
       <c r="D22" s="15">
         <v>2</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="E22" s="15">
+        <v>6</v>
+      </c>
+      <c r="F22" s="15">
+        <v>1</v>
+      </c>
       <c r="G22" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1677,10 +1717,14 @@
       <c r="D23" s="15">
         <v>1</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="E23" s="15">
+        <v>8</v>
+      </c>
+      <c r="F23" s="15">
+        <v>1</v>
+      </c>
       <c r="G23" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1696,10 +1740,14 @@
       <c r="D24" s="15">
         <v>1</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="E24" s="15">
+        <v>2</v>
+      </c>
+      <c r="F24" s="15">
+        <v>1</v>
+      </c>
       <c r="G24" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1715,10 +1763,14 @@
       <c r="D25" s="15">
         <v>1</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="E25" s="15">
+        <v>7</v>
+      </c>
+      <c r="F25" s="15">
+        <v>1</v>
+      </c>
       <c r="G25" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1734,10 +1786,14 @@
       <c r="D26" s="15">
         <v>1</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="E26" s="15">
+        <v>8</v>
+      </c>
+      <c r="F26" s="15">
+        <v>1</v>
+      </c>
       <c r="G26" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1753,8 +1809,12 @@
       <c r="D27" s="15">
         <v>1</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="E27" s="15">
+        <v>9</v>
+      </c>
+      <c r="F27" s="15">
+        <v>1</v>
+      </c>
       <c r="G27" s="16">
         <v>0</v>
       </c>
